--- a/Big Tech/Microsoft.xlsx
+++ b/Big Tech/Microsoft.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Technology/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Big Tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A5BE05-100C-9740-9EFE-794F4C30B3E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0D369C-3DC9-3E4A-8F54-E2BC1B5E1CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="500" windowWidth="27800" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -32,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="2">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+    <metadataType name="XLRICHVALUE" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <futureMetadata name="XLRICHVALUE" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{3e2802c4-a4d2-4d8b-9148-e3be6c30e623}">
+          <xlrd:rvb i="6"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+  <valueMetadata count="1">
+    <bk>
+      <rc t="2" v="0"/>
+    </bk>
+  </valueMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="160">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -315,9 +352,6 @@
   </si>
   <si>
     <t>link</t>
-  </si>
-  <si>
-    <t>Microsoft</t>
   </si>
   <si>
     <t>Revenue Growth YoY</t>
@@ -858,7 +892,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -890,24 +924,8 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="39" fontId="11" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -938,14 +956,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -972,6 +986,28 @@
     <xf numFmtId="2" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="12" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="39" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="11" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -989,12 +1025,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2360,6 +2390,510 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/richData/rdRichValueTypes.xml><?xml version="1.0" encoding="utf-8"?>
+<rvTypesInfo xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <global>
+    <keyFlags>
+      <key name="_Self">
+        <flag name="ExcludeFromFile" value="1"/>
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_DisplayString">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Flags">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Format">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_SubLabel">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Attribution">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Icon">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_Display">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_CanonicalPropertyNames">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+      <key name="_ClassificationId">
+        <flag name="ExcludeFromCalcComparison" value="1"/>
+      </key>
+    </keyFlags>
+  </global>
+  <types>
+    <type name="_imageurl">
+      <keyFlags>
+        <key name="Blip Identifier">
+          <flag name="ShowInCardView" value="0"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentity">
+      <keyFlags>
+        <key name="%cvi">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+    <type name="_linkedentitycore">
+      <keyFlags>
+        <key name="%EntityServiceId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntitySubDomainId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityCulture">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%EntityId">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%IsRefreshable">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+        <key name="%ProviderInfo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLinkLogo">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%DataProviderExternalLink">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+        </key>
+        <key name="%OutdatedReason">
+          <flag name="ShowInCardView" value="0"/>
+          <flag name="ShowInDotNotation" value="0"/>
+          <flag name="ShowInAutoComplete" value="0"/>
+          <flag name="ExcludeFromCalcComparison" value="1"/>
+        </key>
+      </keyFlags>
+    </type>
+  </types>
+</rvTypesInfo>
+</file>
+
+<file path=xl/richData/rdrichvalue.xml><?xml version="1.0" encoding="utf-8"?>
+<rvData xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="7">
+  <rv s="0">
+    <v>http://en.wikipedia.org/wiki/Public_domain</v>
+    <v>Public domain</v>
+  </rv>
+  <rv s="0">
+    <v>https://en.wikipedia.org/wiki/Microsoft</v>
+    <v>Wikipedia</v>
+  </rv>
+  <rv s="1">
+    <v>0</v>
+    <v>1</v>
+  </rv>
+  <rv s="2">
+    <v>6</v>
+    <v>https://www.bing.com/th?id=AMMS_e6e837c7bf3a77408619758b7447855a&amp;qlt=95</v>
+    <v>2</v>
+    <v>0</v>
+    <v>https://www.bing.com/images/search?form=xlimg&amp;q=microsoft</v>
+    <v>Image of MICROSOFT CORPORATION</v>
+  </rv>
+  <rv s="0">
+    <v>https://www.bing.com/financeapi/forcetrigger?t=a1xzim&amp;q=XNAS%3aMSFT&amp;form=skydnc</v>
+    <v>Learn more on Bing</v>
+  </rv>
+  <rv s="3">
+    <v>0</v>
+    <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
+    <v>3</v>
+    <v>4</v>
+    <v>Finance</v>
+    <v>5</v>
+    <v>en-US</v>
+    <v>a1xzim</v>
+    <v>268435456</v>
+    <v>1</v>
+    <v>Powered by Refinitiv</v>
+    <v>315.11</v>
+    <v>213.43100000000001</v>
+    <v>0.9294</v>
+    <v>4.25</v>
+    <v>1.4962E-2</v>
+    <v>0.06</v>
+    <v>2.0809999999999999E-4</v>
+    <v>USD</v>
+    <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. Its segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services, spanning a variety of devices and platforms. This segment includes Office Consumer, LinkedIn, dynamics business solutions, and Office Commercial. The Intelligent Cloud segment consists of public, private, and hybrid server products and cloud services that can power modern businesses and developers. This segment includes server products and cloud services, and enterprise services. The More Personal Computing segment consists of products and services that put customers at the centre of the experience with its technology. This segment includes Windows, devices, gaming, and search and news advertising.</v>
+    <v>221000</v>
+    <v>Nasdaq Stock Market</v>
+    <v>XNAS</v>
+    <v>XNAS</v>
+    <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
+    <v>289.27</v>
+    <v>3</v>
+    <v>Software &amp; IT Services</v>
+    <v>Stock</v>
+    <v>45016.999994166406</v>
+    <v>4</v>
+    <v>283</v>
+    <v>2146049000000</v>
+    <v>MICROSOFT CORPORATION</v>
+    <v>MICROSOFT CORPORATION</v>
+    <v>283.73</v>
+    <v>31.580300000000001</v>
+    <v>284.05</v>
+    <v>288.3</v>
+    <v>288.36</v>
+    <v>7443804000</v>
+    <v>MSFT</v>
+    <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
+    <v>32765976</v>
+    <v>31346316</v>
+    <v>1993</v>
+  </rv>
+  <rv s="4">
+    <v>5</v>
+  </rv>
+</rvData>
+</file>
+
+<file path=xl/richData/rdrichvaluestructure.xml><?xml version="1.0" encoding="utf-8"?>
+<rvStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" count="5">
+  <s t="_hyperlink">
+    <k n="Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_sourceattribution">
+    <k n="License" t="r"/>
+    <k n="Source" t="r"/>
+  </s>
+  <s t="_imageurl">
+    <k n="_Provider" t="spb"/>
+    <k n="Address" t="s"/>
+    <k n="Attribution" t="r"/>
+    <k n="ComputedImage" t="b"/>
+    <k n="More Images Address" t="s"/>
+    <k n="Text" t="s"/>
+  </s>
+  <s t="_linkedentitycore">
+    <k n="_Display" t="spb"/>
+    <k n="_DisplayString" t="s"/>
+    <k n="_Flags" t="spb"/>
+    <k n="_Format" t="spb"/>
+    <k n="_Icon" t="s"/>
+    <k n="_SubLabel" t="spb"/>
+    <k n="%EntityCulture" t="s"/>
+    <k n="%EntityId" t="s"/>
+    <k n="%EntityServiceId"/>
+    <k n="%IsRefreshable" t="b"/>
+    <k n="%ProviderInfo" t="s"/>
+    <k n="52 week high"/>
+    <k n="52 week low"/>
+    <k n="Beta"/>
+    <k n="Change"/>
+    <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
+    <k n="Currency" t="s"/>
+    <k n="Description" t="s"/>
+    <k n="Employees"/>
+    <k n="Exchange" t="s"/>
+    <k n="Exchange abbreviation" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Headquarters" t="s"/>
+    <k n="High"/>
+    <k n="Image" t="r"/>
+    <k n="Industry" t="s"/>
+    <k n="Instrument type" t="s"/>
+    <k n="Last trade time"/>
+    <k n="LearnMoreOnLink" t="r"/>
+    <k n="Low"/>
+    <k n="Market cap"/>
+    <k n="Name" t="s"/>
+    <k n="Official name" t="s"/>
+    <k n="Open"/>
+    <k n="P/E"/>
+    <k n="Previous close"/>
+    <k n="Price"/>
+    <k n="Price (Extended hours)"/>
+    <k n="Shares outstanding"/>
+    <k n="Ticker symbol" t="s"/>
+    <k n="UniqueName" t="s"/>
+    <k n="Volume"/>
+    <k n="Volume average"/>
+    <k n="Year incorporated"/>
+  </s>
+  <s t="_linkedentity">
+    <k n="%cvi" t="r"/>
+  </s>
+</rvStructures>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
+<supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
+  <spbArrays count="1">
+    <a count="46">
+      <v t="s">%EntityServiceId</v>
+      <v t="s">_Format</v>
+      <v t="s">%IsRefreshable</v>
+      <v t="s">%EntityCulture</v>
+      <v t="s">%EntityId</v>
+      <v t="s">_Icon</v>
+      <v t="s">_Display</v>
+      <v t="s">Name</v>
+      <v t="s">_SubLabel</v>
+      <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
+      <v t="s">Exchange</v>
+      <v t="s">Official name</v>
+      <v t="s">Last trade time</v>
+      <v t="s">Ticker symbol</v>
+      <v t="s">Exchange abbreviation</v>
+      <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
+      <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
+      <v t="s">Currency</v>
+      <v t="s">Previous close</v>
+      <v t="s">Open</v>
+      <v t="s">High</v>
+      <v t="s">Low</v>
+      <v t="s">52 week high</v>
+      <v t="s">52 week low</v>
+      <v t="s">Volume</v>
+      <v t="s">Volume average</v>
+      <v t="s">Market cap</v>
+      <v t="s">Beta</v>
+      <v t="s">P/E</v>
+      <v t="s">Shares outstanding</v>
+      <v t="s">Description</v>
+      <v t="s">Employees</v>
+      <v t="s">Headquarters</v>
+      <v t="s">Industry</v>
+      <v t="s">Instrument type</v>
+      <v t="s">Year incorporated</v>
+      <v t="s">_Flags</v>
+      <v t="s">UniqueName</v>
+      <v t="s">_DisplayString</v>
+      <v t="s">LearnMoreOnLink</v>
+      <v t="s">Image</v>
+      <v t="s">ExchangeID</v>
+      <v t="s">%ProviderInfo</v>
+    </a>
+  </spbArrays>
+  <spbData count="7">
+    <spb s="0">
+      <v>0</v>
+      <v>Name</v>
+      <v>LearnMoreOnLink</v>
+    </spb>
+    <spb s="1">
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="2">
+      <v>0</v>
+      <v>0</v>
+      <v>0</v>
+    </spb>
+    <spb s="3">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+      <v>2</v>
+    </spb>
+    <spb s="4">
+      <v>1</v>
+      <v>2</v>
+      <v>2</v>
+      <v>1</v>
+      <v>3</v>
+      <v>1</v>
+      <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>5</v>
+      <v>6</v>
+      <v>7</v>
+      <v>1</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
+      <v>8</v>
+      <v>9</v>
+      <v>10</v>
+      <v>5</v>
+      <v>1</v>
+      <v>1</v>
+      <v>6</v>
+    </spb>
+    <spb s="5">
+      <v>at close</v>
+      <v>from previous close</v>
+      <v>from previous close</v>
+      <v>Source: Nasdaq</v>
+      <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
+    </spb>
+    <spb s="6">
+      <v>Powered by Refinitiv</v>
+    </spb>
+  </spbData>
+</supportingPropertyBags>
+</file>
+
+<file path=xl/richData/rdsupportingpropertybagstructure.xml><?xml version="1.0" encoding="utf-8"?>
+<spbStructures xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" count="7">
+  <s>
+    <k n="^Order" t="spba"/>
+    <k n="TitleProperty" t="s"/>
+    <k n="SubTitleProperty" t="s"/>
+  </s>
+  <s>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="ShowInCardView" t="b"/>
+    <k n="ShowInDotNotation" t="b"/>
+    <k n="ShowInAutoComplete" t="b"/>
+  </s>
+  <s>
+    <k n="Image" t="spb"/>
+    <k n="ExchangeID" t="spb"/>
+    <k n="UniqueName" t="spb"/>
+    <k n="`%ProviderInfo" t="spb"/>
+    <k n="LearnMoreOnLink" t="spb"/>
+  </s>
+  <s>
+    <k n="Low" t="i"/>
+    <k n="P/E" t="i"/>
+    <k n="Beta" t="i"/>
+    <k n="High" t="i"/>
+    <k n="Name" t="i"/>
+    <k n="Open" t="i"/>
+    <k n="Image" t="i"/>
+    <k n="Price" t="i"/>
+    <k n="Change" t="i"/>
+    <k n="Volume" t="i"/>
+    <k n="Employees" t="i"/>
+    <k n="Change (%)" t="i"/>
+    <k n="Market cap" t="i"/>
+    <k n="52 week low" t="i"/>
+    <k n="52 week high" t="i"/>
+    <k n="Previous close" t="i"/>
+    <k n="Volume average" t="i"/>
+    <k n="Last trade time" t="i"/>
+    <k n="Year incorporated" t="i"/>
+    <k n="`%EntityServiceId" t="i"/>
+    <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
+  </s>
+  <s>
+    <k n="Price" t="s"/>
+    <k n="Change" t="s"/>
+    <k n="Change (%)" t="s"/>
+    <k n="ExchangeID" t="s"/>
+    <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
+  </s>
+  <s>
+    <k n="name" t="s"/>
+  </s>
+</spbStructures>
+</file>
+
+<file path=xl/richData/richStyles.xml><?xml version="1.0" encoding="utf-8"?>
+<richStyleSheet xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x">
+  <dxfs count="7">
+    <x:dxf>
+      <x:numFmt numFmtId="2" formatCode="0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="0" formatCode="General"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="27" formatCode="m/d/yy\ h:mm"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="14" formatCode="0.00%"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="3" formatCode="#,##0"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="4" formatCode="#,##0.00"/>
+    </x:dxf>
+    <x:dxf>
+      <x:numFmt numFmtId="1" formatCode="0"/>
+    </x:dxf>
+  </dxfs>
+  <richProperties>
+    <rPr n="NumberFormat" t="s"/>
+    <rPr n="IsTitleField" t="b"/>
+    <rPr n="IsHeroField" t="b"/>
+  </richProperties>
+  <richStyles>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0.00_);_([$$-en-US]* (#,##0.00);_([$$-en-US]* "-"??_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="5">
+      <rpv i="0">#,##0.00</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="1">1</rpv>
+    </rSty>
+    <rSty>
+      <rpv i="2">1</rpv>
+    </rSty>
+    <rSty dxfid="4">
+      <rpv i="0">#,##0</rpv>
+    </rSty>
+    <rSty dxfid="3"/>
+    <rSty dxfid="1">
+      <rpv i="0">_([$$-en-US]* #,##0_);_([$$-en-US]* (#,##0);_([$$-en-US]* "-"_);_(@_)</rpv>
+    </rSty>
+    <rSty dxfid="2"/>
+    <rSty dxfid="6">
+      <rpv i="0">0</rpv>
+    </rSty>
+    <rSty dxfid="0">
+      <rpv i="0">0.00</rpv>
+    </rSty>
+  </richStyles>
+</richStyleSheet>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2660,10 +3194,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AI35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AN44" sqref="AN44"/>
+      <selection pane="bottomRight" activeCell="AU2" sqref="AU2:AU16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2677,8 +3211,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="22" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>94</v>
+      <c r="A1" s="3" t="e" vm="1">
+        <v>#VALUE!</v>
       </c>
       <c r="B1" s="8">
         <v>1986</v>
@@ -2791,19 +3325,19 @@
       <c r="AL1" s="8">
         <v>2022</v>
       </c>
-      <c r="AM1" s="52">
+      <c r="AM1" s="40">
         <v>2023</v>
       </c>
-      <c r="AN1" s="52">
+      <c r="AN1" s="40">
         <v>2024</v>
       </c>
-      <c r="AO1" s="52">
+      <c r="AO1" s="40">
         <v>2025</v>
       </c>
-      <c r="AP1" s="52">
+      <c r="AP1" s="40">
         <v>2026</v>
       </c>
-      <c r="AQ1" s="52">
+      <c r="AQ1" s="40">
         <v>2027</v>
       </c>
     </row>
@@ -3053,37 +3587,37 @@
       <c r="AL3" s="1">
         <v>198270000000</v>
       </c>
-      <c r="AM3" s="25">
+      <c r="AM3" s="20">
         <v>209100000000</v>
       </c>
-      <c r="AN3" s="25">
+      <c r="AN3" s="20">
         <v>233400000000</v>
       </c>
-      <c r="AO3" s="25">
+      <c r="AO3" s="20">
         <v>262300000000</v>
       </c>
-      <c r="AP3" s="25">
+      <c r="AP3" s="20">
         <v>295300000000</v>
       </c>
-      <c r="AQ3" s="25">
+      <c r="AQ3" s="20">
         <v>320300000000</v>
       </c>
-      <c r="AR3" s="53" t="s">
+      <c r="AR3" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="AS3" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="AS3" s="54" t="s">
+      <c r="AT3" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="AT3" s="54" t="s">
+      <c r="AU3" s="42" t="s">
         <v>113</v>
-      </c>
-      <c r="AU3" s="54" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="15">
@@ -3250,19 +3784,19 @@
         <f t="shared" si="7"/>
         <v>8.4659668134100974E-2</v>
       </c>
-      <c r="AR4" s="55">
+      <c r="AR4" s="43">
         <f>(AL4+AK4+AJ4)/3</f>
         <v>0.16377790772708015</v>
       </c>
-      <c r="AS4" s="55">
+      <c r="AS4" s="43">
         <f>(AL20+AK20+AJ20)/3</f>
         <v>0.20007529474142496</v>
       </c>
-      <c r="AT4" s="55">
+      <c r="AT4" s="43">
         <f>(AL29+AK29+AJ29)/3</f>
         <v>0.23310133884414527</v>
       </c>
-      <c r="AU4" s="55">
+      <c r="AU4" s="43">
         <f>(AL105+AK105+AJ105)/3</f>
         <v>0.19460778873716023</v>
       </c>
@@ -3498,17 +4032,17 @@
       <c r="AL6" s="10">
         <v>135620000000</v>
       </c>
-      <c r="AR6" s="53" t="s">
+      <c r="AR6" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="AS6" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="AS6" s="54" t="s">
+      <c r="AT6" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="AT6" s="54" t="s">
+      <c r="AU6" s="42" t="s">
         <v>117</v>
-      </c>
-      <c r="AU6" s="54" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -3626,19 +4160,19 @@
       <c r="AL7" s="2">
         <v>0.68400000000000005</v>
       </c>
-      <c r="AR7" s="55">
+      <c r="AR7" s="43">
         <f>AL7</f>
         <v>0.68400000000000005</v>
       </c>
-      <c r="AS7" s="56">
+      <c r="AS7" s="44">
         <f>AL21</f>
         <v>0.50560000000000005</v>
       </c>
-      <c r="AT7" s="56">
+      <c r="AT7" s="44">
         <f>AL30</f>
         <v>0.3669</v>
       </c>
-      <c r="AU7" s="56">
+      <c r="AU7" s="44">
         <f>AL106/AL3</f>
         <v>0.32858727997175569</v>
       </c>
@@ -3761,7 +4295,7 @@
     </row>
     <row r="9" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B9" s="15" t="e">
         <f>B8/B3</f>
@@ -3911,17 +4445,17 @@
         <f t="shared" si="8"/>
         <v>0.12362939426035205</v>
       </c>
-      <c r="AR9" s="53" t="s">
+      <c r="AR9" s="41" t="s">
+        <v>96</v>
+      </c>
+      <c r="AS9" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="AS9" s="54" t="s">
+      <c r="AT9" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="AT9" s="54" t="s">
+      <c r="AU9" s="42" t="s">
         <v>99</v>
-      </c>
-      <c r="AU9" s="54" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4039,19 +4573,19 @@
       <c r="AL10" s="1">
         <v>5900000000</v>
       </c>
-      <c r="AR10" s="55">
+      <c r="AR10" s="43">
         <f>AL9</f>
         <v>0.12362939426035205</v>
       </c>
-      <c r="AS10" s="56">
+      <c r="AS10" s="44">
         <f>AL13</f>
         <v>0.13983456902204064</v>
       </c>
-      <c r="AT10" s="56">
+      <c r="AT10" s="44">
         <f>AL80</f>
         <v>3.7837292580824126E-2</v>
       </c>
-      <c r="AU10" s="56">
+      <c r="AU10" s="44">
         <f>AL89</f>
         <v>0.12047208352246935</v>
       </c>
@@ -4287,22 +4821,22 @@
       <c r="AL12" s="1">
         <v>27725000000</v>
       </c>
-      <c r="AR12" s="53" t="s">
+      <c r="AR12" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="AS12" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="AS12" s="54" t="s">
+      <c r="AT12" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="AT12" s="54" t="s">
+      <c r="AU12" s="42" t="s">
         <v>121</v>
-      </c>
-      <c r="AU12" s="54" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:47" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="15">
         <f>B12/B3</f>
@@ -4452,15 +4986,15 @@
         <f t="shared" si="9"/>
         <v>0.13983456902204064</v>
       </c>
-      <c r="AR13" s="55">
+      <c r="AR13" s="43">
         <f>AL28/AL72</f>
         <v>0.43675469250999749</v>
       </c>
-      <c r="AS13" s="56">
+      <c r="AS13" s="44">
         <f>AL28/AL54</f>
         <v>0.19936958666812848</v>
       </c>
-      <c r="AT13" s="56">
+      <c r="AT13" s="44">
         <f>AL22/(AL72+AL56+AL61)</f>
         <v>0.36601671553737292</v>
       </c>
@@ -4700,17 +5234,17 @@
       <c r="AL15" s="1">
         <v>52237000000</v>
       </c>
-      <c r="AR15" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS15" s="54" t="s">
+      <c r="AR15" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS15" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="AT15" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="AT15" s="54" t="s">
+      <c r="AU15" s="42" t="s">
         <v>158</v>
-      </c>
-      <c r="AU15" s="54" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -4832,17 +5366,17 @@
         <f>(AL35+AK35+AJ35+AI35+AH35)/5</f>
         <v>-7.5681762677504679E-3</v>
       </c>
-      <c r="AS16" s="57">
+      <c r="AS16" s="45">
         <f>AT101/AL3</f>
-        <v>9.5425429969233875</v>
-      </c>
-      <c r="AT16" s="57">
+        <v>10.823871488374438</v>
+      </c>
+      <c r="AT16" s="45">
         <f>AT101/AL28</f>
-        <v>26.011163353405372</v>
-      </c>
-      <c r="AU16" s="58">
+        <v>29.503821936264401</v>
+      </c>
+      <c r="AU16" s="46">
         <f>AT101/AL106</f>
-        <v>29.041121122350305</v>
+        <v>32.940628405654728</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5076,8 +5610,8 @@
       <c r="AL18" s="1">
         <v>14460000000</v>
       </c>
-      <c r="AR18" s="53" t="s">
-        <v>160</v>
+      <c r="AR18" s="41" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
@@ -5195,14 +5729,14 @@
       <c r="AL19" s="10">
         <v>100239000000</v>
       </c>
-      <c r="AR19" s="65">
+      <c r="AR19" s="47">
         <f>AL40-AL56-AL61</f>
         <v>43479000000</v>
       </c>
     </row>
     <row r="20" spans="1:47" ht="19" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="15">
@@ -6282,7 +6816,7 @@
     </row>
     <row r="29" spans="1:47" ht="20" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="15">
@@ -7014,150 +7548,150 @@
     </row>
     <row r="35" spans="1:38" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="22">
+      <c r="C35" s="19">
         <f>(C34-B34)/B34</f>
         <v>-2.0756156025277837E-2</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="19">
         <f t="shared" ref="D35:Z35" si="36">(D34-C34)/C34</f>
         <v>-0.13838664812239221</v>
       </c>
-      <c r="E35" s="22">
+      <c r="E35" s="19">
         <f t="shared" si="36"/>
         <v>0.10088781275221953</v>
       </c>
-      <c r="F35" s="22">
+      <c r="F35" s="19">
         <f t="shared" si="36"/>
         <v>0.16966904061583576</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="19">
         <f t="shared" si="36"/>
         <v>5.4604063611293052E-2</v>
       </c>
-      <c r="H35" s="22">
+      <c r="H35" s="19">
         <f t="shared" si="36"/>
         <v>5.212610759502509E-2</v>
       </c>
-      <c r="I35" s="22">
+      <c r="I35" s="19">
         <f t="shared" si="36"/>
         <v>7.6684084168902697E-2</v>
       </c>
-      <c r="J35" s="22">
+      <c r="J35" s="19">
         <f t="shared" si="36"/>
         <v>2.4134312696747113E-2</v>
       </c>
-      <c r="K35" s="22">
+      <c r="K35" s="19">
         <f t="shared" si="36"/>
         <v>2.7868852459016394E-2</v>
       </c>
-      <c r="L35" s="22">
+      <c r="L35" s="19">
         <f t="shared" si="36"/>
         <v>2.0733652312599681E-2</v>
       </c>
-      <c r="M35" s="22">
+      <c r="M35" s="19">
         <f t="shared" si="36"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="N35" s="22">
+      <c r="N35" s="19">
         <f t="shared" si="36"/>
         <v>2.1722560975609755E-2</v>
       </c>
-      <c r="O35" s="22">
+      <c r="O35" s="19">
         <f t="shared" si="36"/>
         <v>2.2379709063782172E-2</v>
       </c>
-      <c r="P35" s="22">
+      <c r="P35" s="19">
         <f t="shared" si="36"/>
         <v>9.8504195549069685E-3</v>
       </c>
-      <c r="Q35" s="22">
+      <c r="Q35" s="19">
         <f t="shared" si="36"/>
         <v>6.8641618497109827E-3</v>
       </c>
-      <c r="R35" s="22">
+      <c r="R35" s="19">
         <f t="shared" si="36"/>
         <v>-3.7674919268030141E-3</v>
       </c>
-      <c r="S35" s="22">
+      <c r="S35" s="19">
         <f t="shared" si="36"/>
         <v>-2.0169277867819198E-2</v>
       </c>
-      <c r="T35" s="22">
+      <c r="T35" s="19">
         <f t="shared" si="36"/>
         <v>1.1027384671935306E-3</v>
       </c>
-      <c r="U35" s="22">
+      <c r="U35" s="19">
         <f t="shared" si="36"/>
         <v>1.1015237745548008E-3</v>
       </c>
-      <c r="V35" s="22">
+      <c r="V35" s="19">
         <f t="shared" si="36"/>
         <v>-3.4384742343664038E-2</v>
       </c>
-      <c r="W35" s="22">
+      <c r="W35" s="19">
         <f t="shared" si="36"/>
         <v>-6.1247744753584653E-2</v>
       </c>
-      <c r="X35" s="22">
+      <c r="X35" s="19">
         <f t="shared" si="36"/>
         <v>-4.2079708678939912E-2</v>
       </c>
-      <c r="Y35" s="22">
+      <c r="Y35" s="19">
         <f t="shared" si="36"/>
         <v>-5.0052798310454068E-2</v>
       </c>
-      <c r="Z35" s="22">
+      <c r="Z35" s="19">
         <f t="shared" si="36"/>
         <v>-7.6700755891507336E-3</v>
       </c>
-      <c r="AA35" s="22">
+      <c r="AA35" s="19">
         <f t="shared" ref="AA35" si="37">(AA34-Z34)/Z34</f>
         <v>-3.7414584966954184E-2</v>
       </c>
-      <c r="AB35" s="22">
+      <c r="AB35" s="19">
         <f t="shared" ref="AB35" si="38">(AB34-AA34)/AA34</f>
         <v>-1.0124519958105435E-2</v>
       </c>
-      <c r="AC35" s="22">
+      <c r="AC35" s="19">
         <f t="shared" ref="AC35" si="39">(AC34-AB34)/AB34</f>
         <v>-4.2323066071008704E-3</v>
       </c>
-      <c r="AD35" s="22">
+      <c r="AD35" s="19">
         <f t="shared" ref="AD35" si="40">(AD34-AC34)/AC34</f>
         <v>-8.3825265643447458E-3</v>
       </c>
-      <c r="AE35" s="22">
+      <c r="AE35" s="19">
         <f t="shared" ref="AE35" si="41">(AE34-AD34)/AD34</f>
         <v>-1.7263959995237527E-2</v>
       </c>
-      <c r="AF35" s="22">
+      <c r="AF35" s="19">
         <f t="shared" ref="AF35" si="42">(AF34-AE34)/AE34</f>
         <v>-2.9197964623212988E-2</v>
       </c>
-      <c r="AG35" s="22">
+      <c r="AG35" s="19">
         <f t="shared" ref="AG35" si="43">(AG34-AF34)/AF34</f>
         <v>-2.2588294022213903E-2</v>
       </c>
-      <c r="AH35" s="22">
+      <c r="AH35" s="19">
         <f t="shared" ref="AH35" si="44">(AH34-AG34)/AG34</f>
         <v>-4.8518896833503579E-3</v>
       </c>
-      <c r="AI35" s="22">
+      <c r="AI35" s="19">
         <f t="shared" ref="AI35" si="45">(AI34-AH34)/AH34</f>
         <v>-5.2604567616114963E-3</v>
       </c>
-      <c r="AJ35" s="22">
+      <c r="AJ35" s="19">
         <f t="shared" ref="AJ35" si="46">(AJ34-AI34)/AI34</f>
         <v>-9.0287630594608533E-3</v>
       </c>
-      <c r="AK35" s="22">
+      <c r="AK35" s="19">
         <f t="shared" ref="AK35" si="47">(AK34-AJ34)/AJ34</f>
         <v>-9.7618117922686452E-3</v>
       </c>
-      <c r="AL35" s="22">
+      <c r="AL35" s="19">
         <f t="shared" ref="AL35" si="48">(AL34-AK34)/AK34</f>
         <v>-8.9379600420609884E-3</v>
       </c>
@@ -12268,7 +12802,7 @@
     </row>
     <row r="80" spans="1:38" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B80" s="15" t="e">
         <f t="shared" ref="B80:AL80" si="49">B79/B3</f>
@@ -12767,7 +13301,7 @@
         <v>-1123000000</v>
       </c>
       <c r="AS83" s="61" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AT83" s="62"/>
     </row>
@@ -12887,7 +13421,7 @@
         <v>2943000000</v>
       </c>
       <c r="AS84" s="63" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AT84" s="64"/>
     </row>
@@ -13006,10 +13540,10 @@
       <c r="AL85" s="1">
         <v>5805000000</v>
       </c>
-      <c r="AS85" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="AT85" s="20">
+      <c r="AS85" s="49" t="s">
+        <v>102</v>
+      </c>
+      <c r="AT85" s="50">
         <f>AL17</f>
         <v>2063000000</v>
       </c>
@@ -13129,10 +13663,10 @@
       <c r="AL86" s="1">
         <v>-409000000</v>
       </c>
-      <c r="AS86" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT86" s="20">
+      <c r="AS86" s="49" t="s">
+        <v>125</v>
+      </c>
+      <c r="AT86" s="50">
         <f>AL56</f>
         <v>2749000000</v>
       </c>
@@ -13252,10 +13786,10 @@
       <c r="AL87" s="10">
         <v>89035000000</v>
       </c>
-      <c r="AS87" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT87" s="20">
+      <c r="AS87" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT87" s="50">
         <f>AL61</f>
         <v>58521000000</v>
       </c>
@@ -13375,17 +13909,17 @@
       <c r="AL88" s="1">
         <v>-23886000000</v>
       </c>
-      <c r="AS88" s="23" t="s">
-        <v>128</v>
-      </c>
-      <c r="AT88" s="24">
+      <c r="AS88" s="51" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT88" s="52">
         <f>AT85/(AT86+AT87)</f>
         <v>3.3670638158968501E-2</v>
       </c>
     </row>
     <row r="89" spans="1:46" ht="20" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B89" s="15" t="e">
         <f t="shared" ref="B89:AL89" si="50">(-1*B88)/B3</f>
@@ -13535,10 +14069,10 @@
         <f t="shared" si="50"/>
         <v>0.12047208352246935</v>
       </c>
-      <c r="AS89" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="AT89" s="20">
+      <c r="AS89" s="49" t="s">
+        <v>128</v>
+      </c>
+      <c r="AT89" s="50">
         <f>AL27</f>
         <v>10978000000</v>
       </c>
@@ -13658,10 +14192,10 @@
       <c r="AL90" s="1">
         <v>-22038000000</v>
       </c>
-      <c r="AS90" s="19" t="s">
+      <c r="AS90" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="AT90" s="20">
+      <c r="AT90" s="50">
         <f>AL25</f>
         <v>83716000000</v>
       </c>
@@ -13781,10 +14315,10 @@
       <c r="AL91" s="1">
         <v>-26456000000</v>
       </c>
-      <c r="AS91" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="AT91" s="24">
+      <c r="AS91" s="51" t="s">
+        <v>129</v>
+      </c>
+      <c r="AT91" s="52">
         <f>AT89/AT90</f>
         <v>0.13113383343685794</v>
       </c>
@@ -13904,10 +14438,10 @@
       <c r="AL92" s="1">
         <v>44894000000</v>
       </c>
-      <c r="AS92" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="AT92" s="27">
+      <c r="AS92" s="53" t="s">
+        <v>130</v>
+      </c>
+      <c r="AT92" s="54">
         <f>AT88*(1-AT91)</f>
         <v>2.9255278302917614E-2</v>
       </c>
@@ -14028,7 +14562,7 @@
         <v>-2825000000</v>
       </c>
       <c r="AS93" s="63" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AT93" s="64"/>
     </row>
@@ -14147,10 +14681,10 @@
       <c r="AL94" s="10">
         <v>-30311000000</v>
       </c>
-      <c r="AS94" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="AT94" s="21">
+      <c r="AS94" s="49" t="s">
+        <v>104</v>
+      </c>
+      <c r="AT94" s="55">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -14269,11 +14803,12 @@
       <c r="AL95" s="1">
         <v>-9023000000</v>
       </c>
-      <c r="AS95" s="19" t="s">
-        <v>133</v>
-      </c>
-      <c r="AT95" s="28">
-        <v>0.92</v>
+      <c r="AS95" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT95" s="57" cm="1">
+        <f t="array" ref="AT95">_FV(A1,"Beta")</f>
+        <v>0.9294</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14391,10 +14926,10 @@
       <c r="AL96" s="1">
         <v>1841000000</v>
       </c>
-      <c r="AS96" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="AT96" s="21">
+      <c r="AS96" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="AT96" s="55">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -14513,12 +15048,12 @@
       <c r="AL97" s="1">
         <v>-32696000000</v>
       </c>
-      <c r="AS97" s="26" t="s">
-        <v>135</v>
-      </c>
-      <c r="AT97" s="27">
+      <c r="AS97" s="53" t="s">
+        <v>134</v>
+      </c>
+      <c r="AT97" s="54">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>8.0556000000000016E-2</v>
+        <v>8.0960670000000012E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -14637,7 +15172,7 @@
         <v>-18135000000</v>
       </c>
       <c r="AS98" s="63" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AT98" s="64"/>
     </row>
@@ -14756,10 +15291,10 @@
       <c r="AL99" s="1">
         <v>-863000000</v>
       </c>
-      <c r="AS99" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="AT99" s="20">
+      <c r="AS99" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="AT99" s="50">
         <f>AT86+AT87</f>
         <v>61270000000</v>
       </c>
@@ -14879,12 +15414,12 @@
       <c r="AL100" s="10">
         <v>-58876000000</v>
       </c>
-      <c r="AS100" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="AT100" s="24">
+      <c r="AS100" s="51" t="s">
+        <v>106</v>
+      </c>
+      <c r="AT100" s="52">
         <f>AT99/AT103</f>
-        <v>3.136791124626908E-2</v>
+        <v>2.7757655327571594E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15002,11 +15537,12 @@
       <c r="AL101" s="1">
         <v>-141000000</v>
       </c>
-      <c r="AS101" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="AT101" s="29">
-        <v>1892000000000</v>
+      <c r="AS101" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="AT101" s="34" cm="1">
+        <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
+        <v>2146049000000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15124,12 +15660,12 @@
       <c r="AL102" s="10">
         <v>-293000000</v>
       </c>
-      <c r="AS102" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="AT102" s="24">
+      <c r="AS102" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="AT102" s="52">
         <f>AT101/AT103</f>
-        <v>0.96863208875373097</v>
+        <v>0.97224234467242843</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15247,12 +15783,12 @@
       <c r="AL103" s="1">
         <v>14224000000</v>
       </c>
-      <c r="AS103" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="AT103" s="30">
+      <c r="AS103" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="AT103" s="56">
         <f>AT99+AT101</f>
-        <v>1953270000000</v>
+        <v>2207319000000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15371,13 +15907,13 @@
         <v>13931000000</v>
       </c>
       <c r="AS104" s="63" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AT104" s="64"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B105" s="1"/>
       <c r="C105" s="15" t="e">
@@ -15530,12 +16066,12 @@
       <c r="AP105" s="15"/>
       <c r="AQ105" s="15"/>
       <c r="AR105" s="15"/>
-      <c r="AS105" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="AT105" s="32">
+      <c r="AS105" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="AT105" s="22">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>7.8946803514936381E-2</v>
+        <v>7.9525449558695324E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15653,33 +16189,33 @@
       <c r="AL106" s="1">
         <v>65149000000</v>
       </c>
-      <c r="AM106" s="33">
+      <c r="AM106" s="23">
         <f>AL106*(1+$AT$106)</f>
         <v>71730695933.998474</v>
       </c>
-      <c r="AN106" s="33">
+      <c r="AN106" s="23">
         <f t="shared" ref="AN106:AQ106" si="64">AM106*(1+$AT$106)</f>
         <v>78977309539.298309</v>
       </c>
-      <c r="AO106" s="33">
+      <c r="AO106" s="23">
         <f t="shared" si="64"/>
         <v>86956014309.485718</v>
       </c>
-      <c r="AP106" s="33">
+      <c r="AP106" s="23">
         <f t="shared" si="64"/>
         <v>95740769959.111282</v>
       </c>
-      <c r="AQ106" s="33">
+      <c r="AQ106" s="23">
         <f t="shared" si="64"/>
         <v>105413008003.55965</v>
       </c>
-      <c r="AR106" s="34" t="s">
+      <c r="AR106" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS106" s="25" t="s">
         <v>143</v>
       </c>
-      <c r="AS106" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="AT106" s="36">
+      <c r="AT106" s="26">
         <f>(SUM(AM4:AQ4)/5)</f>
         <v>0.10102527949774323</v>
       </c>
@@ -15723,138 +16259,139 @@
       <c r="AJ107" s="13"/>
       <c r="AK107" s="13"/>
       <c r="AL107" s="13"/>
-      <c r="AM107" s="34"/>
-      <c r="AN107" s="34"/>
-      <c r="AO107" s="34"/>
-      <c r="AP107" s="34"/>
-      <c r="AQ107" s="37">
+      <c r="AM107" s="24"/>
+      <c r="AN107" s="24"/>
+      <c r="AO107" s="24"/>
+      <c r="AP107" s="24"/>
+      <c r="AQ107" s="27">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>2002868124961.8994</v>
-      </c>
-      <c r="AR107" s="38" t="s">
+        <v>1981612881290.1804</v>
+      </c>
+      <c r="AR107" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS107" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="AS107" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="AT107" s="40">
+      <c r="AT107" s="30">
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
     <row r="108" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM108" s="37">
+      <c r="AM108" s="27">
         <f t="shared" ref="AM108:AO108" si="65">AM107+AM106</f>
         <v>71730695933.998474</v>
       </c>
-      <c r="AN108" s="37">
+      <c r="AN108" s="27">
         <f t="shared" si="65"/>
         <v>78977309539.298309</v>
       </c>
-      <c r="AO108" s="37">
+      <c r="AO108" s="27">
         <f t="shared" si="65"/>
         <v>86956014309.485718</v>
       </c>
-      <c r="AP108" s="37">
+      <c r="AP108" s="27">
         <f>AP107+AP106</f>
         <v>95740769959.111282</v>
       </c>
-      <c r="AQ108" s="37">
+      <c r="AQ108" s="27">
         <f>AQ107+AQ106</f>
-        <v>2108281132965.459</v>
-      </c>
-      <c r="AR108" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS108" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="AT108" s="42">
+        <v>2087025889293.74</v>
+      </c>
+      <c r="AR108" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS108" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="AT108" s="32">
         <f>AT105</f>
-        <v>7.8946803514936381E-2</v>
+        <v>7.9525449558695324E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="AM109" s="59" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AN109" s="60"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM110" s="43" t="s">
-        <v>149</v>
-      </c>
-      <c r="AN110" s="44">
+      <c r="AM110" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="AN110" s="34">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>1716080515320.2485</v>
+        <v>1697351537451.4121</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM111" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="AN111" s="44">
+      <c r="AM111" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="AN111" s="34">
         <f>AL40</f>
         <v>104749000000</v>
       </c>
     </row>
     <row r="112" spans="1:46" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM112" s="43" t="s">
-        <v>137</v>
-      </c>
-      <c r="AN112" s="44">
+      <c r="AM112" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="AN112" s="34">
         <f>AT99</f>
         <v>61270000000</v>
       </c>
     </row>
     <row r="113" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM113" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="AN113" s="44">
+      <c r="AM113" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="AN113" s="34">
         <f>AN110+AN111-AN112</f>
-        <v>1759559515320.2485</v>
+        <v>1740830537451.4121</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM114" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="AN114" s="66">
+      <c r="AM114" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="AN114" s="48">
         <f>AL34*(1+(5*AR16))</f>
         <v>7254679754.7058077</v>
       </c>
     </row>
     <row r="115" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM115" s="46" t="s">
-        <v>153</v>
-      </c>
-      <c r="AN115" s="47">
+      <c r="AM115" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="AN115" s="36">
         <f>AN113/AN114</f>
-        <v>242.54130779224207</v>
+        <v>239.95966690634526</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM116" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="AN116" s="48">
-        <v>254.15</v>
+      <c r="AM116" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="AN116" s="58" cm="1">
+        <f t="array" ref="AN116">_FV(A1,"Price (Extended hours)",TRUE)</f>
+        <v>288.36</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="AN117" s="50">
-        <f>AN115/AN116-1</f>
-        <v>-4.567653829532925E-2</v>
+      <c r="AM117" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="AN117" s="38">
+        <f>(AN115/AN116)-1</f>
+        <v>-0.16784690350136899</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="49" t="s">
-        <v>156</v>
-      </c>
-      <c r="AN118" s="51" t="str">
+      <c r="AM118" s="37" t="s">
+        <v>155</v>
+      </c>
+      <c r="AN118" s="39" t="str">
         <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>

--- a/Big Tech/Microsoft.xlsx
+++ b/Big Tech/Microsoft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Big Tech/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0D369C-3DC9-3E4A-8F54-E2BC1B5E1CA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A89F354-477C-8444-8B37-9114FAF2FA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,11 +556,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="#,###,,;\(#,###,,\);\ \-\ \-"/>
     <numFmt numFmtId="165" formatCode="#.00%;\ \-#.00%;\ \-\ \-"/>
     <numFmt numFmtId="166" formatCode="#,##0.00_);\(#,##0.00\);\-\ \-"/>
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="171" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -959,7 +960,6 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1026,6 +1026,7 @@
     <xf numFmtId="0" fontId="12" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="171" fontId="12" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2537,13 +2538,13 @@
     <v>268435456</v>
     <v>1</v>
     <v>Powered by Refinitiv</v>
-    <v>315.11</v>
+    <v>307</v>
     <v>213.43100000000001</v>
-    <v>0.9294</v>
-    <v>4.25</v>
-    <v>1.4962E-2</v>
-    <v>0.06</v>
-    <v>2.0809999999999999E-4</v>
+    <v>0.92979999999999996</v>
+    <v>7.26</v>
+    <v>2.5533E-2</v>
+    <v>-0.02</v>
+    <v>-6.8589999999999992E-5</v>
     <v>USD</v>
     <v>Microsoft Corporation is a technology company. The Company develops and supports software, services, devices, and solutions. Its segments include Productivity and Business Processes, Intelligent Cloud, and More Personal Computing. The Productivity and Business Processes segment consists of products and services in its portfolio of productivity, communication, and information services, spanning a variety of devices and platforms. This segment includes Office Consumer, LinkedIn, dynamics business solutions, and Office Commercial. The Intelligent Cloud segment consists of public, private, and hybrid server products and cloud services that can power modern businesses and developers. This segment includes server products and cloud services, and enterprise services. The More Personal Computing segment consists of products and services that put customers at the centre of the experience with its technology. This segment includes Windows, devices, gaming, and search and news advertising.</v>
     <v>221000</v>
@@ -2551,26 +2552,26 @@
     <v>XNAS</v>
     <v>XNAS</v>
     <v>One Microsoft Way, REDMOND, WA, 98052-6399 US</v>
-    <v>289.27</v>
+    <v>292.08</v>
     <v>3</v>
     <v>Software &amp; IT Services</v>
     <v>Stock</v>
-    <v>45016.999994166406</v>
+    <v>45022.999843911719</v>
     <v>4</v>
-    <v>283</v>
-    <v>2146049000000</v>
+    <v>282.02999999999997</v>
+    <v>2170613000000</v>
     <v>MICROSOFT CORPORATION</v>
     <v>MICROSOFT CORPORATION</v>
-    <v>283.73</v>
-    <v>31.580300000000001</v>
-    <v>284.05</v>
-    <v>288.3</v>
-    <v>288.36</v>
+    <v>283.20999999999998</v>
+    <v>31.612500000000001</v>
+    <v>284.33999999999997</v>
+    <v>291.60000000000002</v>
+    <v>291.58</v>
     <v>7443804000</v>
     <v>MSFT</v>
     <v>MICROSOFT CORPORATION (XNAS:MSFT)</v>
-    <v>32765976</v>
-    <v>31346316</v>
+    <v>29770334</v>
+    <v>31718365</v>
     <v>1993</v>
   </rv>
   <rv s="4">
@@ -3194,10 +3195,10 @@
   <dimension ref="A1:AU118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AI76" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AU2" sqref="AU2:AU16"/>
+      <selection pane="bottomRight" activeCell="AQ94" sqref="AQ94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3325,19 +3326,19 @@
       <c r="AL1" s="8">
         <v>2022</v>
       </c>
-      <c r="AM1" s="40">
+      <c r="AM1" s="39">
         <v>2023</v>
       </c>
-      <c r="AN1" s="40">
+      <c r="AN1" s="39">
         <v>2024</v>
       </c>
-      <c r="AO1" s="40">
+      <c r="AO1" s="39">
         <v>2025</v>
       </c>
-      <c r="AP1" s="40">
+      <c r="AP1" s="39">
         <v>2026</v>
       </c>
-      <c r="AQ1" s="40">
+      <c r="AQ1" s="39">
         <v>2027</v>
       </c>
     </row>
@@ -3602,16 +3603,16 @@
       <c r="AQ3" s="20">
         <v>320300000000</v>
       </c>
-      <c r="AR3" s="41" t="s">
+      <c r="AR3" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="AS3" s="42" t="s">
+      <c r="AS3" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="AT3" s="42" t="s">
+      <c r="AT3" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="AU3" s="42" t="s">
+      <c r="AU3" s="41" t="s">
         <v>113</v>
       </c>
     </row>
@@ -3784,19 +3785,19 @@
         <f t="shared" si="7"/>
         <v>8.4659668134100974E-2</v>
       </c>
-      <c r="AR4" s="43">
+      <c r="AR4" s="42">
         <f>(AL4+AK4+AJ4)/3</f>
         <v>0.16377790772708015</v>
       </c>
-      <c r="AS4" s="43">
+      <c r="AS4" s="42">
         <f>(AL20+AK20+AJ20)/3</f>
         <v>0.20007529474142496</v>
       </c>
-      <c r="AT4" s="43">
+      <c r="AT4" s="42">
         <f>(AL29+AK29+AJ29)/3</f>
         <v>0.23310133884414527</v>
       </c>
-      <c r="AU4" s="43">
+      <c r="AU4" s="42">
         <f>(AL105+AK105+AJ105)/3</f>
         <v>0.19460778873716023</v>
       </c>
@@ -4032,16 +4033,16 @@
       <c r="AL6" s="10">
         <v>135620000000</v>
       </c>
-      <c r="AR6" s="41" t="s">
+      <c r="AR6" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="AS6" s="42" t="s">
+      <c r="AS6" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="AT6" s="42" t="s">
+      <c r="AT6" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="AU6" s="42" t="s">
+      <c r="AU6" s="41" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4160,19 +4161,19 @@
       <c r="AL7" s="2">
         <v>0.68400000000000005</v>
       </c>
-      <c r="AR7" s="43">
+      <c r="AR7" s="42">
         <f>AL7</f>
         <v>0.68400000000000005</v>
       </c>
-      <c r="AS7" s="44">
+      <c r="AS7" s="43">
         <f>AL21</f>
         <v>0.50560000000000005</v>
       </c>
-      <c r="AT7" s="44">
+      <c r="AT7" s="43">
         <f>AL30</f>
         <v>0.3669</v>
       </c>
-      <c r="AU7" s="44">
+      <c r="AU7" s="43">
         <f>AL106/AL3</f>
         <v>0.32858727997175569</v>
       </c>
@@ -4445,16 +4446,16 @@
         <f t="shared" si="8"/>
         <v>0.12362939426035205</v>
       </c>
-      <c r="AR9" s="41" t="s">
+      <c r="AR9" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="AS9" s="42" t="s">
+      <c r="AS9" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="AT9" s="42" t="s">
+      <c r="AT9" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="AU9" s="42" t="s">
+      <c r="AU9" s="41" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4573,19 +4574,19 @@
       <c r="AL10" s="1">
         <v>5900000000</v>
       </c>
-      <c r="AR10" s="43">
+      <c r="AR10" s="42">
         <f>AL9</f>
         <v>0.12362939426035205</v>
       </c>
-      <c r="AS10" s="44">
+      <c r="AS10" s="43">
         <f>AL13</f>
         <v>0.13983456902204064</v>
       </c>
-      <c r="AT10" s="44">
+      <c r="AT10" s="43">
         <f>AL80</f>
         <v>3.7837292580824126E-2</v>
       </c>
-      <c r="AU10" s="44">
+      <c r="AU10" s="43">
         <f>AL89</f>
         <v>0.12047208352246935</v>
       </c>
@@ -4821,16 +4822,16 @@
       <c r="AL12" s="1">
         <v>27725000000</v>
       </c>
-      <c r="AR12" s="41" t="s">
+      <c r="AR12" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="AS12" s="42" t="s">
+      <c r="AS12" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="AT12" s="42" t="s">
+      <c r="AT12" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="AU12" s="42" t="s">
+      <c r="AU12" s="41" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4986,15 +4987,15 @@
         <f t="shared" si="9"/>
         <v>0.13983456902204064</v>
       </c>
-      <c r="AR13" s="43">
+      <c r="AR13" s="42">
         <f>AL28/AL72</f>
         <v>0.43675469250999749</v>
       </c>
-      <c r="AS13" s="44">
+      <c r="AS13" s="43">
         <f>AL28/AL54</f>
         <v>0.19936958666812848</v>
       </c>
-      <c r="AT13" s="44">
+      <c r="AT13" s="43">
         <f>AL22/(AL72+AL56+AL61)</f>
         <v>0.36601671553737292</v>
       </c>
@@ -5234,16 +5235,16 @@
       <c r="AL15" s="1">
         <v>52237000000</v>
       </c>
-      <c r="AR15" s="41" t="s">
+      <c r="AR15" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="AS15" s="42" t="s">
+      <c r="AS15" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="AT15" s="42" t="s">
+      <c r="AT15" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="AU15" s="42" t="s">
+      <c r="AU15" s="41" t="s">
         <v>158</v>
       </c>
     </row>
@@ -5366,17 +5367,17 @@
         <f>(AL35+AK35+AJ35+AI35+AH35)/5</f>
         <v>-7.5681762677504679E-3</v>
       </c>
-      <c r="AS16" s="45">
+      <c r="AS16" s="44">
         <f>AT101/AL3</f>
-        <v>10.823871488374438</v>
-      </c>
-      <c r="AT16" s="45">
+        <v>10.947763151258386</v>
+      </c>
+      <c r="AT16" s="44">
         <f>AT101/AL28</f>
-        <v>29.503821936264401</v>
-      </c>
-      <c r="AU16" s="46">
+        <v>29.841527124749099</v>
+      </c>
+      <c r="AU16" s="45">
         <f>AT101/AL106</f>
-        <v>32.940628405654728</v>
+        <v>33.317671798492682</v>
       </c>
     </row>
     <row r="17" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -5610,7 +5611,7 @@
       <c r="AL18" s="1">
         <v>14460000000</v>
       </c>
-      <c r="AR18" s="41" t="s">
+      <c r="AR18" s="40" t="s">
         <v>159</v>
       </c>
     </row>
@@ -5729,7 +5730,7 @@
       <c r="AL19" s="10">
         <v>100239000000</v>
       </c>
-      <c r="AR19" s="47">
+      <c r="AR19" s="46">
         <f>AL40-AL56-AL61</f>
         <v>43479000000</v>
       </c>
@@ -13300,10 +13301,10 @@
       <c r="AL83" s="1">
         <v>-1123000000</v>
       </c>
-      <c r="AS83" s="61" t="s">
+      <c r="AS83" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="AT83" s="62"/>
+      <c r="AT83" s="61"/>
     </row>
     <row r="84" spans="1:46" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
@@ -13420,10 +13421,10 @@
       <c r="AL84" s="1">
         <v>2943000000</v>
       </c>
-      <c r="AS84" s="63" t="s">
+      <c r="AS84" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="AT84" s="64"/>
+      <c r="AT84" s="63"/>
     </row>
     <row r="85" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
@@ -13540,10 +13541,10 @@
       <c r="AL85" s="1">
         <v>5805000000</v>
       </c>
-      <c r="AS85" s="49" t="s">
+      <c r="AS85" s="48" t="s">
         <v>102</v>
       </c>
-      <c r="AT85" s="50">
+      <c r="AT85" s="49">
         <f>AL17</f>
         <v>2063000000</v>
       </c>
@@ -13663,10 +13664,10 @@
       <c r="AL86" s="1">
         <v>-409000000</v>
       </c>
-      <c r="AS86" s="49" t="s">
+      <c r="AS86" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="AT86" s="50">
+      <c r="AT86" s="49">
         <f>AL56</f>
         <v>2749000000</v>
       </c>
@@ -13786,10 +13787,10 @@
       <c r="AL87" s="10">
         <v>89035000000</v>
       </c>
-      <c r="AS87" s="49" t="s">
+      <c r="AS87" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="AT87" s="50">
+      <c r="AT87" s="49">
         <f>AL61</f>
         <v>58521000000</v>
       </c>
@@ -13909,10 +13910,10 @@
       <c r="AL88" s="1">
         <v>-23886000000</v>
       </c>
-      <c r="AS88" s="51" t="s">
+      <c r="AS88" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="AT88" s="52">
+      <c r="AT88" s="51">
         <f>AT85/(AT86+AT87)</f>
         <v>3.3670638158968501E-2</v>
       </c>
@@ -14069,10 +14070,10 @@
         <f t="shared" si="50"/>
         <v>0.12047208352246935</v>
       </c>
-      <c r="AS89" s="49" t="s">
+      <c r="AS89" s="48" t="s">
         <v>128</v>
       </c>
-      <c r="AT89" s="50">
+      <c r="AT89" s="49">
         <f>AL27</f>
         <v>10978000000</v>
       </c>
@@ -14192,10 +14193,10 @@
       <c r="AL90" s="1">
         <v>-22038000000</v>
       </c>
-      <c r="AS90" s="49" t="s">
+      <c r="AS90" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="AT90" s="50">
+      <c r="AT90" s="49">
         <f>AL25</f>
         <v>83716000000</v>
       </c>
@@ -14315,10 +14316,10 @@
       <c r="AL91" s="1">
         <v>-26456000000</v>
       </c>
-      <c r="AS91" s="51" t="s">
+      <c r="AS91" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="AT91" s="52">
+      <c r="AT91" s="51">
         <f>AT89/AT90</f>
         <v>0.13113383343685794</v>
       </c>
@@ -14438,10 +14439,10 @@
       <c r="AL92" s="1">
         <v>44894000000</v>
       </c>
-      <c r="AS92" s="53" t="s">
+      <c r="AS92" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="AT92" s="54">
+      <c r="AT92" s="53">
         <f>AT88*(1-AT91)</f>
         <v>2.9255278302917614E-2</v>
       </c>
@@ -14561,10 +14562,10 @@
       <c r="AL93" s="1">
         <v>-2825000000</v>
       </c>
-      <c r="AS93" s="63" t="s">
+      <c r="AS93" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="AT93" s="64"/>
+      <c r="AT93" s="63"/>
     </row>
     <row r="94" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
@@ -14681,10 +14682,10 @@
       <c r="AL94" s="10">
         <v>-30311000000</v>
       </c>
-      <c r="AS94" s="49" t="s">
+      <c r="AS94" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="AT94" s="55">
+      <c r="AT94" s="54">
         <v>4.095E-2</v>
       </c>
     </row>
@@ -14803,12 +14804,12 @@
       <c r="AL95" s="1">
         <v>-9023000000</v>
       </c>
-      <c r="AS95" s="49" t="s">
+      <c r="AS95" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AT95" s="57" cm="1">
+      <c r="AT95" s="56" cm="1">
         <f t="array" ref="AT95">_FV(A1,"Beta")</f>
-        <v>0.9294</v>
+        <v>0.92979999999999996</v>
       </c>
     </row>
     <row r="96" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -14926,10 +14927,10 @@
       <c r="AL96" s="1">
         <v>1841000000</v>
       </c>
-      <c r="AS96" s="49" t="s">
+      <c r="AS96" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="AT96" s="55">
+      <c r="AT96" s="54">
         <v>8.4000000000000005E-2</v>
       </c>
     </row>
@@ -15048,12 +15049,12 @@
       <c r="AL97" s="1">
         <v>-32696000000</v>
       </c>
-      <c r="AS97" s="53" t="s">
+      <c r="AS97" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="AT97" s="54">
+      <c r="AT97" s="53">
         <f>(AT94)+((AT95)*(AT96-AT94))</f>
-        <v>8.0960670000000012E-2</v>
+        <v>8.0977889999999997E-2</v>
       </c>
     </row>
     <row r="98" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -15171,10 +15172,10 @@
       <c r="AL98" s="1">
         <v>-18135000000</v>
       </c>
-      <c r="AS98" s="63" t="s">
+      <c r="AS98" s="62" t="s">
         <v>135</v>
       </c>
-      <c r="AT98" s="64"/>
+      <c r="AT98" s="63"/>
     </row>
     <row r="99" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
@@ -15291,10 +15292,10 @@
       <c r="AL99" s="1">
         <v>-863000000</v>
       </c>
-      <c r="AS99" s="49" t="s">
+      <c r="AS99" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AT99" s="50">
+      <c r="AT99" s="49">
         <f>AT86+AT87</f>
         <v>61270000000</v>
       </c>
@@ -15414,12 +15415,12 @@
       <c r="AL100" s="10">
         <v>-58876000000</v>
       </c>
-      <c r="AS100" s="51" t="s">
+      <c r="AS100" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="AT100" s="52">
+      <c r="AT100" s="51">
         <f>AT99/AT103</f>
-        <v>2.7757655327571594E-2</v>
+        <v>2.7452155870177783E-2</v>
       </c>
     </row>
     <row r="101" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15537,12 +15538,12 @@
       <c r="AL101" s="1">
         <v>-141000000</v>
       </c>
-      <c r="AS101" s="49" t="s">
+      <c r="AS101" s="48" t="s">
         <v>137</v>
       </c>
       <c r="AT101" s="34" cm="1">
         <f t="array" ref="AT101">_FV(A1,"Market cap",TRUE)</f>
-        <v>2146049000000</v>
+        <v>2170613000000</v>
       </c>
     </row>
     <row r="102" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15660,12 +15661,12 @@
       <c r="AL102" s="10">
         <v>-293000000</v>
       </c>
-      <c r="AS102" s="51" t="s">
+      <c r="AS102" s="50" t="s">
         <v>138</v>
       </c>
-      <c r="AT102" s="52">
+      <c r="AT102" s="51">
         <f>AT101/AT103</f>
-        <v>0.97224234467242843</v>
+        <v>0.9725478441298222</v>
       </c>
     </row>
     <row r="103" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -15783,12 +15784,12 @@
       <c r="AL103" s="1">
         <v>14224000000</v>
       </c>
-      <c r="AS103" s="53" t="s">
+      <c r="AS103" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="AT103" s="56">
+      <c r="AT103" s="55">
         <f>AT99+AT101</f>
-        <v>2207319000000</v>
+        <v>2231883000000</v>
       </c>
     </row>
     <row r="104" spans="1:46" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -15906,10 +15907,10 @@
       <c r="AL104" s="11">
         <v>13931000000</v>
       </c>
-      <c r="AS104" s="63" t="s">
+      <c r="AS104" s="62" t="s">
         <v>140</v>
       </c>
-      <c r="AT104" s="64"/>
+      <c r="AT104" s="63"/>
     </row>
     <row r="105" spans="1:46" ht="21" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A105" s="14" t="s">
@@ -16071,7 +16072,7 @@
       </c>
       <c r="AT105" s="22">
         <f>(AT100*AT92)+(AT102*AT97)</f>
-        <v>7.9525449558695324E-2</v>
+        <v>7.9557992801679009E-2</v>
       </c>
     </row>
     <row r="106" spans="1:46" ht="19" x14ac:dyDescent="0.25">
@@ -16265,7 +16266,7 @@
       <c r="AP107" s="24"/>
       <c r="AQ107" s="27">
         <f>AQ106*(1+AT107)/(AT108-AT107)</f>
-        <v>1981612881290.1804</v>
+        <v>1980430870989.1445</v>
       </c>
       <c r="AR107" s="28" t="s">
         <v>144</v>
@@ -16296,7 +16297,7 @@
       </c>
       <c r="AQ108" s="27">
         <f>AQ107+AQ106</f>
-        <v>2087025889293.74</v>
+        <v>2085843878992.7041</v>
       </c>
       <c r="AR108" s="28" t="s">
         <v>139</v>
@@ -16306,14 +16307,14 @@
       </c>
       <c r="AT108" s="32">
         <f>AT105</f>
-        <v>7.9525449558695324E-2</v>
+        <v>7.9557992801679009E-2</v>
       </c>
     </row>
     <row r="109" spans="1:46" ht="19" x14ac:dyDescent="0.25">
-      <c r="AM109" s="59" t="s">
+      <c r="AM109" s="58" t="s">
         <v>147</v>
       </c>
-      <c r="AN109" s="60"/>
+      <c r="AN109" s="59"/>
     </row>
     <row r="110" spans="1:46" ht="20" x14ac:dyDescent="0.25">
       <c r="AM110" s="33" t="s">
@@ -16321,7 +16322,7 @@
       </c>
       <c r="AN110" s="34">
         <f>NPV(AT108,AM108,AN108,AO108,AP108,AQ108)</f>
-        <v>1697351537451.4121</v>
+        <v>1696310046603.2058</v>
       </c>
     </row>
     <row r="111" spans="1:46" ht="20" x14ac:dyDescent="0.25">
@@ -16348,14 +16349,14 @@
       </c>
       <c r="AN113" s="34">
         <f>AN110+AN111-AN112</f>
-        <v>1740830537451.4121</v>
+        <v>1739789046603.2058</v>
       </c>
     </row>
     <row r="114" spans="39:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AM114" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="AN114" s="48">
+      <c r="AN114" s="47">
         <f>AL34*(1+(5*AR16))</f>
         <v>7254679754.7058077</v>
       </c>
@@ -16364,34 +16365,34 @@
       <c r="AM115" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="AN115" s="36">
+      <c r="AN115" s="64">
         <f>AN113/AN114</f>
-        <v>239.95966690634526</v>
+        <v>239.81610566264862</v>
       </c>
     </row>
     <row r="116" spans="39:40" ht="20" x14ac:dyDescent="0.25">
       <c r="AM116" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="AN116" s="58" cm="1">
+      <c r="AN116" s="57" cm="1">
         <f t="array" ref="AN116">_FV(A1,"Price (Extended hours)",TRUE)</f>
-        <v>288.36</v>
+        <v>291.58</v>
       </c>
     </row>
     <row r="117" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM117" s="37" t="s">
+      <c r="AM117" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="AN117" s="38">
+      <c r="AN117" s="37">
         <f>(AN115/AN116)-1</f>
-        <v>-0.16784690350136899</v>
+        <v>-0.17752896061921719</v>
       </c>
     </row>
     <row r="118" spans="39:40" ht="20" x14ac:dyDescent="0.25">
-      <c r="AM118" s="37" t="s">
+      <c r="AM118" s="36" t="s">
         <v>155</v>
       </c>
-      <c r="AN118" s="39" t="str">
+      <c r="AN118" s="38" t="str">
         <f>IF(AN115&gt;AN116,"BUY","SELL")</f>
         <v>SELL</v>
       </c>
